--- a/cours/iut/but1/physique/tp1.xlsx
+++ b/cours/iut/but1/physique/tp1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etudiant-admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Documents/GitHub/learning/cours/iut/but1/physique/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29BB8AD-5668-4BEC-8B28-7BE402E0F8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2302DE48-C1B8-B440-91BD-417AD20037BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46EDDBF1-C86C-4B5A-88D6-45EDF7303321}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{46EDDBF1-C86C-4B5A-88D6-45EDF7303321}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1505,16 +1504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF15AF1-53C5-4026-AD95-452B9A0C9613}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="220" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.2</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>0.42907518518518523</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.1499999999999999</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>0.43564732144324825</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.03</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>0.53054832542803476</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.95499999999999996</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>0.59543577658082369</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.86</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>0.70065201806130295</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.72</v>
       </c>
@@ -1678,7 +1677,7 @@
         <v>0.94039823388203025</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>1.2415792592592592</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.8077999999999999</v>
       </c>
